--- a/Finflux Automation Excels/Client/5044-CompondingPenalityCharge-MoraoriumOnPrinciple2-2ndInstallment.xlsx
+++ b/Finflux Automation Excels/Client/5044-CompondingPenalityCharge-MoraoriumOnPrinciple2-2ndInstallment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
   <si>
     <t>OverDueTillDate</t>
   </si>
@@ -1326,9 +1326,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>3796</v>
+        <v>318</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>30</v>
@@ -1390,12 +1390,12 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="7">
-        <v>5299.83</v>
+        <v>5300.19</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>3795</v>
+        <v>317</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>30</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>3794</v>
+        <v>316</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>30</v>
@@ -1438,12 +1438,12 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="7">
-        <v>5246.36</v>
+        <v>5246.72</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>3793</v>
+        <v>315</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>30</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>3792</v>
+        <v>314</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>30</v>
@@ -1486,12 +1486,12 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="7">
-        <v>5198.5</v>
+        <v>5198.8599999999997</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>3791</v>
+        <v>313</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>30</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>3797</v>
+        <v>332</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>30</v>
@@ -1524,22 +1524,22 @@
         <v>42004</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="6">
-        <v>51.92</v>
+        <v>52.28</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="6">
-        <v>0</v>
+      <c r="J8" s="7">
+        <v>5146.41</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>3790</v>
+        <v>331</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>30</v>
@@ -1548,46 +1548,46 @@
         <v>42004</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="6">
-        <v>51.92</v>
+        <v>0.36</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="7">
-        <v>5146.05</v>
+      <c r="J9" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>3788</v>
+        <v>311</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="8">
-        <v>41973</v>
+        <v>42004</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="6">
-        <v>49.75</v>
+        <v>51.92</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="7">
-        <v>5094.13</v>
+      <c r="J10" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>3787</v>
+        <v>310</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>30</v>
@@ -1596,7 +1596,7 @@
         <v>41973</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="6">
         <v>49.75</v>
@@ -1605,37 +1605,37 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="6">
-        <v>0</v>
+      <c r="J11" s="7">
+        <v>5094.13</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>3786</v>
+        <v>309</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="8">
-        <v>41943</v>
+        <v>41973</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" s="6">
-        <v>44.38</v>
+        <v>49.75</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="7">
-        <v>5044.38</v>
+      <c r="J12" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>3785</v>
+        <v>308</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>30</v>
@@ -1644,7 +1644,7 @@
         <v>41943</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="6">
         <v>44.38</v>
@@ -1653,31 +1653,55 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="6">
-        <v>0</v>
+      <c r="J13" s="7">
+        <v>5044.38</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>3784</v>
+        <v>307</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="8">
+        <v>41943</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="6">
+        <v>44.38</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>306</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="8">
         <v>41917</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E15" s="5">
         <v>5000</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5">
         <v>5000</v>
       </c>
     </row>
@@ -1690,7 +1714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
